--- a/biology/Zoologie/Boophis_entingae/Boophis_entingae.xlsx
+++ b/biology/Zoologie/Boophis_entingae/Boophis_entingae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis entingae est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis entingae est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans le parc national de la Montagne d'Ambre, dans la réserve naturelle intégrale de Tsaratanana, dans la réserve spéciale de Manongarivo et dans les environs de Benavony[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans le parc national de la Montagne d'Ambre, dans la réserve naturelle intégrale de Tsaratanana, dans la réserve spéciale de Manongarivo et dans les environs de Benavony.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Glaw, Köhler, De la Riva, Vieites &amp; Vences, 2010 : Integrative taxonomy of Malagasy treefrogs: combination of molecular genetics, bioacoustics and comparative morphology reveals twelve additional species of Boophis. Zootaxa, no 2383, p. 1-82.</t>
         </is>
